--- a/output/datos_sociales.xlsx
+++ b/output/datos_sociales.xlsx
@@ -128,7 +128,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Copia de dic18 vcb.xlsx</t>
+    <t xml:space="preserve">_site/Copia de dic18 vcb.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">FIE GP</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">Datos Sociales Quarterly dic-2019.xlsx</t>
+    <t xml:space="preserve">_site/Datos Sociales Quarterly dic-2019.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">1451396.98499917</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Datos Sociales Quarterly Jun 19.xlsx</t>
+    <t xml:space="preserve">_site/Datos Sociales Quarterly Jun 19.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">83129056.3498543</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">Datos Sociales Quarterly Jun 20.xlsx</t>
+    <t xml:space="preserve">_site/Datos Sociales Quarterly Jun 20.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">1226475.76953932</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">Datos Sociales Quarterly Mar 19.xlsx</t>
+    <t xml:space="preserve">_site/Datos Sociales Quarterly Mar 19.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">5036692.20769227</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">Datos Sociales Quarterly Sep 20.xlsx</t>
+    <t xml:space="preserve">_site/Datos Sociales Quarterly Sep 20.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">124008561.317784</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">Datos Sociales Quarterly sep.xlsx</t>
+    <t xml:space="preserve">_site/Datos Sociales Quarterly sep.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">1368219.94247461</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">22</t>
   </si>
   <si>
-    <t xml:space="preserve">xBase completa - Datos sociales Locfund II Final.xlsx</t>
+    <t xml:space="preserve">_site/xBase completa - Datos sociales Locfund II Final.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">137002079.03207</t>
